--- a/report_sum.xlsx
+++ b/report_sum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -37,28 +37,25 @@
     <t>status</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>234567</t>
-  </si>
-  <si>
-    <t>factorial</t>
-  </si>
-  <si>
-    <t>reverse</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>1126673</t>
+  </si>
+  <si>
+    <t>even_pos_upcase</t>
+  </si>
+  <si>
+    <t>factorial_num</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>test_factorial_case1</t>
+    <t>test_factorial_num_case5,test_factorial_num_case6</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,113 +447,58 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
